--- a/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 16,71</t>
+          <t>6,67; 17,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 26,42</t>
+          <t>13,59; 25,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 19,27</t>
+          <t>11,11; 19,22</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,47; 23,58</t>
+          <t>13,21; 23,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 24,55</t>
+          <t>16,68; 25,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 22,74</t>
+          <t>16,27; 22,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 21,43</t>
+          <t>14,37; 21,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,18; 32,07</t>
+          <t>24,11; 31,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 25,74</t>
+          <t>20,88; 25,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 26,94</t>
+          <t>18,04; 27,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,4; 40,94</t>
+          <t>34,52; 40,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,31; 33,38</t>
+          <t>26,75; 33,18</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,04; 33,05</t>
+          <t>25,84; 33,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,36; 46,67</t>
+          <t>40,34; 46,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,02; 39,0</t>
+          <t>34,11; 38,95</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,64; 35,49</t>
+          <t>29,8; 35,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,18; 74,67</t>
+          <t>59,05; 75,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,54; 61,37</t>
+          <t>47,69; 62,79</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,68; 25,31</t>
+          <t>21,61; 25,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,06</t>
+          <t>37,91; 46,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,82; 35,79</t>
+          <t>30,77; 36,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 17,3</t>
+          <t>6,18; 16,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,59; 25,58</t>
+          <t>13,9; 26,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 19,22</t>
+          <t>11,33; 19,27</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,21; 23,31</t>
+          <t>13,47; 23,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 25,04</t>
+          <t>16,41; 24,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 22,96</t>
+          <t>16,45; 22,74</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 21,13</t>
+          <t>14,48; 21,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,11; 31,87</t>
+          <t>24,18; 32,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,88; 25,67</t>
+          <t>20,67; 25,74</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,04; 27,12</t>
+          <t>17,31; 26,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,52; 40,91</t>
+          <t>34,4; 40,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,75; 33,18</t>
+          <t>27,31; 33,38</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,84; 33,2</t>
+          <t>26,04; 33,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,34; 46,62</t>
+          <t>40,36; 46,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,11; 38,95</t>
+          <t>34,02; 39,0</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,8; 35,81</t>
+          <t>29,64; 35,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,05; 75,75</t>
+          <t>59,18; 74,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,69; 62,79</t>
+          <t>47,54; 61,37</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,61; 25,0</t>
+          <t>21,68; 25,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,91; 46,47</t>
+          <t>37,95; 46,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,77; 36,55</t>
+          <t>30,82; 35,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>14,85%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 16,71</t>
+          <t>6,35; 18,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 26,42</t>
+          <t>13,88; 26,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 19,27</t>
+          <t>11,31; 19,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>19,03%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,47; 23,58</t>
+          <t>14,22; 24,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 24,55</t>
+          <t>11,82; 23,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 22,74</t>
+          <t>14,51; 22,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>23,19%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 21,43</t>
+          <t>14,87; 22,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,18; 32,07</t>
+          <t>20,54; 31,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 25,74</t>
+          <t>19,96; 25,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>26,29%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 26,94</t>
+          <t>7,94; 26,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,4; 40,94</t>
+          <t>30,85; 40,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,31; 33,38</t>
+          <t>16,98; 32,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>36,6%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,04; 33,05</t>
+          <t>26,42; 33,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,36; 46,67</t>
+          <t>40,47; 46,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,02; 39,0</t>
+          <t>34,25; 39,27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>64,32%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>53,01%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,64; 35,49</t>
+          <t>24,08; 31,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,18; 74,67</t>
+          <t>51,57; 88,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,54; 61,37</t>
+          <t>39,71; 78,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>67,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>56,28%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,68; 25,31</t>
+          <t>35,13; 44,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,06</t>
+          <t>63,59; 69,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,82; 35,79</t>
+          <t>53,48; 58,97</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22,17%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>41,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 24,63</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36,74; 50,76</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 37,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 18,02</t>
+          <t>6,7; 18,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 26,23</t>
+          <t>13,24; 25,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,31; 19,47</t>
+          <t>10,88; 19,62</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 24,72</t>
+          <t>14,71; 24,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,82; 23,88</t>
+          <t>11,97; 24,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 22,62</t>
+          <t>14,35; 22,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,87; 22,16</t>
+          <t>14,86; 21,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,54; 31,77</t>
+          <t>21,45; 31,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,96; 25,81</t>
+          <t>19,83; 25,91</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 26,01</t>
+          <t>8,0; 26,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,85; 40,21</t>
+          <t>30,91; 40,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 32,17</t>
+          <t>16,13; 32,03</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,42; 33,57</t>
+          <t>25,84; 33,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,47; 46,7</t>
+          <t>40,49; 46,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,25; 39,27</t>
+          <t>34,13; 38,89</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,08; 31,26</t>
+          <t>23,34; 30,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,57; 88,56</t>
+          <t>51,59; 86,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,71; 78,24</t>
+          <t>39,51; 74,36</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,13; 44,81</t>
+          <t>35,17; 44,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,59; 69,88</t>
+          <t>63,62; 70,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53,48; 58,97</t>
+          <t>53,48; 59,11</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,63</t>
+          <t>17,17; 24,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36,74; 50,76</t>
+          <t>36,85; 52,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,71; 37,94</t>
+          <t>28,71; 38,45</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>46435</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>59490</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>105925</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26784; 73481</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>41467; 78868</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>77630; 139927</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>80559</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>97484</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>178043</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>62287; 104568</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>61285; 123823</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>134268; 208336</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>97735</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>163912</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>261647</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>79692; 117410</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>126958; 188031</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>223798; 292360</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>160751</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>260063</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>420814</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>71027; 231357</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>220357; 286243</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>258135; 512721</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>167352</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>238581</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>405932</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>145045; 186127</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>221827; 256189</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>378556; 431309</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>100556</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>417128</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>517683</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>85921; 112819</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>313832; 524515</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>385787; 726114</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>113511</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>285297</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>398808</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>99438; 125997</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>270911; 298861</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>378946; 418879</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2292</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3165</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>766900</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1521954</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2288854</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>594040; 847131</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1367959; 1946538</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2059043; 2757995</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>